--- a/www/IndicatorsPerCountry/Brazil_GDPperCapita_TerritorialRef_1960_2012_CCode_76.xlsx
+++ b/www/IndicatorsPerCountry/Brazil_GDPperCapita_TerritorialRef_1960_2012_CCode_76.xlsx
@@ -495,13 +495,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Brazil_GDPperCapita_TerritorialRef_1960_2012_CCode_76.xlsx
+++ b/www/IndicatorsPerCountry/Brazil_GDPperCapita_TerritorialRef_1960_2012_CCode_76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="172">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,436 +36,463 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>683.499889722</t>
+    <t>867</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>680.032007468</t>
-  </si>
-  <si>
-    <t>712.973359192</t>
-  </si>
-  <si>
-    <t>716.833667335</t>
-  </si>
-  <si>
-    <t>720.664896233</t>
-  </si>
-  <si>
-    <t>724.464182275</t>
-  </si>
-  <si>
-    <t>728.392721759</t>
-  </si>
-  <si>
-    <t>732.347195088</t>
-  </si>
-  <si>
-    <t>736.188475938</t>
-  </si>
-  <si>
-    <t>740.139835066</t>
-  </si>
-  <si>
-    <t>744.126704795</t>
-  </si>
-  <si>
-    <t>748.143029884</t>
-  </si>
-  <si>
-    <t>752.16211633</t>
-  </si>
-  <si>
-    <t>756.221389929</t>
-  </si>
-  <si>
-    <t>760.294117647</t>
-  </si>
-  <si>
-    <t>764.314354451</t>
-  </si>
-  <si>
-    <t>768.401165079</t>
-  </si>
-  <si>
-    <t>772.583262499</t>
-  </si>
-  <si>
-    <t>776.757945839</t>
-  </si>
-  <si>
-    <t>780.8637379</t>
-  </si>
-  <si>
-    <t>785.0460459</t>
-  </si>
-  <si>
-    <t>789.281102023</t>
-  </si>
-  <si>
-    <t>793.506584971</t>
-  </si>
-  <si>
-    <t>772.542815875</t>
-  </si>
-  <si>
-    <t>729.88042456</t>
-  </si>
-  <si>
-    <t>621.571972182</t>
-  </si>
-  <si>
-    <t>621.195617351</t>
-  </si>
-  <si>
-    <t>783.416770964</t>
-  </si>
-  <si>
-    <t>709.937660433</t>
-  </si>
-  <si>
-    <t>699.098668895</t>
-  </si>
-  <si>
-    <t>717.033927947</t>
-  </si>
-  <si>
-    <t>702.971988158</t>
-  </si>
-  <si>
-    <t>678.4363879</t>
-  </si>
-  <si>
-    <t>729.9369291</t>
-  </si>
-  <si>
-    <t>714.780108615</t>
-  </si>
-  <si>
-    <t>713.920750782</t>
-  </si>
-  <si>
-    <t>712.7686731</t>
-  </si>
-  <si>
-    <t>718.142278658</t>
-  </si>
-  <si>
-    <t>770.304009399</t>
-  </si>
-  <si>
-    <t>755.225311601</t>
-  </si>
-  <si>
-    <t>734.121954654</t>
-  </si>
-  <si>
-    <t>776.225062058</t>
-  </si>
-  <si>
-    <t>768.725243068</t>
-  </si>
-  <si>
-    <t>835.676819324</t>
-  </si>
-  <si>
-    <t>809.176450276</t>
-  </si>
-  <si>
-    <t>810.989010989</t>
-  </si>
-  <si>
-    <t>779.934605356</t>
-  </si>
-  <si>
-    <t>797.924941234</t>
-  </si>
-  <si>
-    <t>804.183037663</t>
-  </si>
-  <si>
-    <t>841.908907197</t>
-  </si>
-  <si>
-    <t>807.664497469</t>
-  </si>
-  <si>
-    <t>895.248742314</t>
-  </si>
-  <si>
-    <t>963.107575536</t>
-  </si>
-  <si>
-    <t>963.352282885</t>
-  </si>
-  <si>
-    <t>1009.07434658</t>
-  </si>
-  <si>
-    <t>1045.59500103</t>
-  </si>
-  <si>
-    <t>1023.92086936</t>
-  </si>
-  <si>
-    <t>1007.38494</t>
-  </si>
-  <si>
-    <t>1008.30291086</t>
-  </si>
-  <si>
-    <t>1059.80308355</t>
-  </si>
-  <si>
-    <t>1158.18700751</t>
-  </si>
-  <si>
-    <t>1137.44147869</t>
-  </si>
-  <si>
-    <t>1048.23045758</t>
-  </si>
-  <si>
-    <t>1004.23283512</t>
-  </si>
-  <si>
-    <t>1018.36542037</t>
-  </si>
-  <si>
-    <t>1075.71552715</t>
-  </si>
-  <si>
-    <t>1142.31952533</t>
-  </si>
-  <si>
-    <t>1149.98654105</t>
-  </si>
-  <si>
-    <t>1235.10326818</t>
-  </si>
-  <si>
-    <t>1249.90306821</t>
-  </si>
-  <si>
-    <t>1275.98784195</t>
-  </si>
-  <si>
-    <t>1262.77644022</t>
-  </si>
-  <si>
-    <t>1249.72028993</t>
-  </si>
-  <si>
-    <t>1306.92433859</t>
-  </si>
-  <si>
-    <t>1229.28324317</t>
-  </si>
-  <si>
-    <t>1367.94956115</t>
-  </si>
-  <si>
-    <t>1385.92410447</t>
-  </si>
-  <si>
-    <t>1389.93833171</t>
-  </si>
-  <si>
-    <t>1500.91940904</t>
-  </si>
-  <si>
-    <t>1517.87852512</t>
-  </si>
-  <si>
-    <t>1596.22907844</t>
-  </si>
-  <si>
-    <t>1659.2605724</t>
-  </si>
-  <si>
-    <t>1671.7226694</t>
-  </si>
-  <si>
-    <t>1702.10190893</t>
-  </si>
-  <si>
-    <t>1752.23523459</t>
-  </si>
-  <si>
-    <t>1784.16852112</t>
-  </si>
-  <si>
-    <t>1847.59864935</t>
-  </si>
-  <si>
-    <t>1925.74342422</t>
-  </si>
-  <si>
-    <t>1896.43599402</t>
-  </si>
-  <si>
-    <t>1994.12150852</t>
-  </si>
-  <si>
-    <t>2111.2130412</t>
-  </si>
-  <si>
-    <t>2221.0013152</t>
-  </si>
-  <si>
-    <t>2334.85520082</t>
-  </si>
-  <si>
-    <t>2437.2738322</t>
-  </si>
-  <si>
-    <t>2510.96175285</t>
-  </si>
-  <si>
-    <t>2463.23263429</t>
-  </si>
-  <si>
-    <t>2472.17760426</t>
-  </si>
-  <si>
-    <t>2448.39186516</t>
-  </si>
-  <si>
-    <t>2526.73522575</t>
-  </si>
-  <si>
-    <t>2553.97446966</t>
-  </si>
-  <si>
-    <t>2704.24508213</t>
-  </si>
-  <si>
-    <t>2859.84181517</t>
-  </si>
-  <si>
-    <t>3056.71890969</t>
-  </si>
-  <si>
-    <t>3278.47148018</t>
-  </si>
-  <si>
-    <t>3537.87893808</t>
-  </si>
-  <si>
-    <t>3880.12133742</t>
-  </si>
-  <si>
-    <t>4080.93650525</t>
-  </si>
-  <si>
-    <t>4187.3823235</t>
-  </si>
-  <si>
-    <t>4469.61999229</t>
-  </si>
-  <si>
-    <t>4565.36070576</t>
-  </si>
-  <si>
-    <t>4678.40657981</t>
-  </si>
-  <si>
-    <t>4889.95928427</t>
-  </si>
-  <si>
-    <t>5195.03332791</t>
-  </si>
-  <si>
-    <t>4849.56981396</t>
-  </si>
-  <si>
-    <t>4762.82667328</t>
-  </si>
-  <si>
-    <t>4498.14337678</t>
-  </si>
-  <si>
-    <t>4643.22675001</t>
-  </si>
-  <si>
-    <t>4913.96252784</t>
-  </si>
-  <si>
-    <t>5201.6605324</t>
-  </si>
-  <si>
-    <t>5269.52952939</t>
-  </si>
-  <si>
-    <t>5154.5522475</t>
-  </si>
-  <si>
-    <t>5223.67969649</t>
-  </si>
-  <si>
-    <t>4920.05688959</t>
-  </si>
-  <si>
-    <t>4887.81235816</t>
-  </si>
-  <si>
-    <t>4782.21120616</t>
-  </si>
-  <si>
-    <t>4937.48473444</t>
-  </si>
-  <si>
-    <t>5144.89096908</t>
-  </si>
-  <si>
-    <t>5280.43555069</t>
-  </si>
-  <si>
-    <t>5313.32799419</t>
-  </si>
-  <si>
-    <t>5411.32774096</t>
-  </si>
-  <si>
-    <t>5333.894962</t>
-  </si>
-  <si>
-    <t>5269.86710195</t>
-  </si>
-  <si>
-    <t>5417.94331975</t>
-  </si>
-  <si>
-    <t>5412.25528042</t>
-  </si>
-  <si>
-    <t>5481.24662503</t>
-  </si>
-  <si>
-    <t>5472.38803078</t>
-  </si>
-  <si>
-    <t>5713.41316511</t>
-  </si>
-  <si>
-    <t>5824.47136316</t>
-  </si>
-  <si>
-    <t>5987.80863497</t>
-  </si>
-  <si>
-    <t>6284.52609008</t>
-  </si>
-  <si>
-    <t>6542.01177947</t>
-  </si>
-  <si>
-    <t>6456.96385455</t>
-  </si>
-  <si>
-    <t>6879.05486244</t>
+    <t>926</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1298</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>2096</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2531</t>
+  </si>
+  <si>
+    <t>2675</t>
+  </si>
+  <si>
+    <t>2672</t>
+  </si>
+  <si>
+    <t>2793</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3711</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>3637</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>3747</t>
+  </si>
+  <si>
+    <t>3795</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>4313</t>
+  </si>
+  <si>
+    <t>4635</t>
+  </si>
+  <si>
+    <t>5024</t>
+  </si>
+  <si>
+    <t>5480</t>
+  </si>
+  <si>
+    <t>6086</t>
+  </si>
+  <si>
+    <t>6416</t>
+  </si>
+  <si>
+    <t>6582</t>
+  </si>
+  <si>
+    <t>7079</t>
+  </si>
+  <si>
+    <t>7248</t>
+  </si>
+  <si>
+    <t>7425</t>
+  </si>
+  <si>
+    <t>7736</t>
+  </si>
+  <si>
+    <t>8249</t>
+  </si>
+  <si>
+    <t>7709</t>
+  </si>
+  <si>
+    <t>7587</t>
+  </si>
+  <si>
+    <t>7203</t>
+  </si>
+  <si>
+    <t>7438</t>
+  </si>
+  <si>
+    <t>7862</t>
+  </si>
+  <si>
+    <t>8281</t>
+  </si>
+  <si>
+    <t>8402</t>
+  </si>
+  <si>
+    <t>8230</t>
+  </si>
+  <si>
+    <t>8333</t>
+  </si>
+  <si>
+    <t>7842</t>
+  </si>
+  <si>
+    <t>7888.04852782413</t>
+  </si>
+  <si>
+    <t>7812.79425539626</t>
+  </si>
+  <si>
+    <t>8166.23556253979</t>
+  </si>
+  <si>
+    <t>8615.68866123507</t>
+  </si>
+  <si>
+    <t>8951.69435667578</t>
+  </si>
+  <si>
+    <t>9124.5160690394</t>
+  </si>
+  <si>
+    <t>9409.94648482931</t>
+  </si>
+  <si>
+    <t>9419.1079072904</t>
+  </si>
+  <si>
+    <t>9441.75889899426</t>
+  </si>
+  <si>
+    <t>9834.4244366632</t>
+  </si>
+  <si>
+    <t>9953.30948413253</t>
+  </si>
+  <si>
+    <t>10245.0689172829</t>
+  </si>
+  <si>
+    <t>10354.5953584982</t>
+  </si>
+  <si>
+    <t>10949.6601198874</t>
+  </si>
+  <si>
+    <t>11305.7717240731</t>
+  </si>
+  <si>
+    <t>11766.6057327589</t>
+  </si>
+  <si>
+    <t>12500.0063684</t>
+  </si>
+  <si>
+    <t>13164.0113425742</t>
+  </si>
+  <si>
+    <t>13180.8909280227</t>
+  </si>
+  <si>
+    <t>14215.6125814475</t>
+  </si>
+  <si>
+    <t>14831</t>
+  </si>
+  <si>
+    <t>14985</t>
+  </si>
+  <si>
+    <t>15306</t>
+  </si>
+  <si>
+    <t>15258</t>
+  </si>
+  <si>
+    <t>15826</t>
+  </si>
+  <si>
+    <t>13873</t>
   </si>
   <si>
     <t>Description</t>
@@ -1450,7 +1477,7 @@
         <v>1851.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1467,7 +1494,7 @@
         <v>1852.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1484,7 +1511,7 @@
         <v>1853.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1501,7 +1528,7 @@
         <v>1854.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1518,7 +1545,7 @@
         <v>1855.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1535,7 +1562,7 @@
         <v>1856.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1552,7 +1579,7 @@
         <v>1857.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -1569,7 +1596,7 @@
         <v>1858.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1586,7 +1613,7 @@
         <v>1859.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1630,7 @@
         <v>1860.0</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1620,7 +1647,7 @@
         <v>1861.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -1637,7 +1664,7 @@
         <v>1862.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1654,7 +1681,7 @@
         <v>1863.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -1671,7 +1698,7 @@
         <v>1864.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -1688,7 +1715,7 @@
         <v>1865.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -1705,7 +1732,7 @@
         <v>1866.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -1722,7 +1749,7 @@
         <v>1867.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -1739,7 +1766,7 @@
         <v>1868.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -1756,7 +1783,7 @@
         <v>1869.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -1773,7 +1800,7 @@
         <v>1870.0</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -1790,7 +1817,7 @@
         <v>1871.0</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -1807,7 +1834,7 @@
         <v>1872.0</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
@@ -1824,7 +1851,7 @@
         <v>1873.0</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
@@ -1841,7 +1868,7 @@
         <v>1874.0</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -1858,7 +1885,7 @@
         <v>1875.0</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -1875,7 +1902,7 @@
         <v>1876.0</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -1892,7 +1919,7 @@
         <v>1877.0</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -1909,7 +1936,7 @@
         <v>1878.0</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -1926,7 +1953,7 @@
         <v>1879.0</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -1943,7 +1970,7 @@
         <v>1880.0</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -1960,7 +1987,7 @@
         <v>1881.0</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -1977,7 +2004,7 @@
         <v>1882.0</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -1994,7 +2021,7 @@
         <v>1883.0</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
@@ -2011,7 +2038,7 @@
         <v>1884.0</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
@@ -2028,7 +2055,7 @@
         <v>1885.0</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -2045,7 +2072,7 @@
         <v>1886.0</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -2062,7 +2089,7 @@
         <v>1887.0</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90">
@@ -2079,7 +2106,7 @@
         <v>1888.0</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -2096,7 +2123,7 @@
         <v>1889.0</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2113,7 +2140,7 @@
         <v>1890.0</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -2130,7 +2157,7 @@
         <v>1891.0</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
@@ -2147,7 +2174,7 @@
         <v>1892.0</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -2164,7 +2191,7 @@
         <v>1893.0</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
@@ -2181,7 +2208,7 @@
         <v>1894.0</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
@@ -2198,7 +2225,7 @@
         <v>1895.0</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
@@ -2215,7 +2242,7 @@
         <v>1896.0</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -2232,7 +2259,7 @@
         <v>1897.0</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -2249,7 +2276,7 @@
         <v>1898.0</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -2266,7 +2293,7 @@
         <v>1899.0</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
@@ -2283,7 +2310,7 @@
         <v>1900.0</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103">
@@ -2300,7 +2327,7 @@
         <v>1901.0</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
@@ -2317,7 +2344,7 @@
         <v>1902.0</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105">
@@ -2334,7 +2361,7 @@
         <v>1903.0</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -2351,7 +2378,7 @@
         <v>1904.0</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
@@ -2368,7 +2395,7 @@
         <v>1905.0</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108">
@@ -2385,7 +2412,7 @@
         <v>1906.0</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109">
@@ -2402,7 +2429,7 @@
         <v>1907.0</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
@@ -2419,7 +2446,7 @@
         <v>1908.0</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
@@ -2436,7 +2463,7 @@
         <v>1909.0</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
@@ -2453,7 +2480,7 @@
         <v>1910.0</v>
       </c>
       <c r="E112" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113">
@@ -2470,7 +2497,7 @@
         <v>1911.0</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
@@ -2487,7 +2514,7 @@
         <v>1912.0</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2531,7 @@
         <v>1913.0</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116">
@@ -2521,7 +2548,7 @@
         <v>1914.0</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117">
@@ -2538,7 +2565,7 @@
         <v>1915.0</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
@@ -2555,7 +2582,7 @@
         <v>1916.0</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119">
@@ -2572,7 +2599,7 @@
         <v>1917.0</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
@@ -2589,7 +2616,7 @@
         <v>1918.0</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121">
@@ -2606,7 +2633,7 @@
         <v>1919.0</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122">
@@ -2623,7 +2650,7 @@
         <v>1920.0</v>
       </c>
       <c r="E122" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123">
@@ -2640,7 +2667,7 @@
         <v>1921.0</v>
       </c>
       <c r="E123" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124">
@@ -2657,7 +2684,7 @@
         <v>1922.0</v>
       </c>
       <c r="E124" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125">
@@ -2674,7 +2701,7 @@
         <v>1923.0</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126">
@@ -2691,7 +2718,7 @@
         <v>1924.0</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127">
@@ -2708,7 +2735,7 @@
         <v>1925.0</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128">
@@ -2725,7 +2752,7 @@
         <v>1926.0</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
@@ -2742,7 +2769,7 @@
         <v>1927.0</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130">
@@ -2759,7 +2786,7 @@
         <v>1928.0</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131">
@@ -2776,7 +2803,7 @@
         <v>1929.0</v>
       </c>
       <c r="E131" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
@@ -2793,7 +2820,7 @@
         <v>1930.0</v>
       </c>
       <c r="E132" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133">
@@ -2810,7 +2837,7 @@
         <v>1931.0</v>
       </c>
       <c r="E133" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134">
@@ -2827,7 +2854,7 @@
         <v>1932.0</v>
       </c>
       <c r="E134" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
@@ -2844,7 +2871,7 @@
         <v>1933.0</v>
       </c>
       <c r="E135" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
@@ -2861,7 +2888,7 @@
         <v>1934.0</v>
       </c>
       <c r="E136" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137">
@@ -2878,7 +2905,7 @@
         <v>1935.0</v>
       </c>
       <c r="E137" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138">
@@ -2895,7 +2922,7 @@
         <v>1936.0</v>
       </c>
       <c r="E138" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
@@ -2912,7 +2939,7 @@
         <v>1937.0</v>
       </c>
       <c r="E139" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140">
@@ -2929,7 +2956,7 @@
         <v>1938.0</v>
       </c>
       <c r="E140" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141">
@@ -2946,7 +2973,7 @@
         <v>1939.0</v>
       </c>
       <c r="E141" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142">
@@ -2963,7 +2990,7 @@
         <v>1940.0</v>
       </c>
       <c r="E142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143">
@@ -2980,7 +3007,7 @@
         <v>1941.0</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
@@ -2997,7 +3024,7 @@
         <v>1942.0</v>
       </c>
       <c r="E144" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145">
@@ -3014,7 +3041,7 @@
         <v>1943.0</v>
       </c>
       <c r="E145" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146">
@@ -3031,7 +3058,7 @@
         <v>1944.0</v>
       </c>
       <c r="E146" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147">
@@ -3048,7 +3075,7 @@
         <v>1945.0</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
@@ -3065,7 +3092,7 @@
         <v>1946.0</v>
       </c>
       <c r="E148" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149">
@@ -3082,7 +3109,7 @@
         <v>1947.0</v>
       </c>
       <c r="E149" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150">
@@ -3099,7 +3126,7 @@
         <v>1948.0</v>
       </c>
       <c r="E150" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151">
@@ -3116,7 +3143,7 @@
         <v>1949.0</v>
       </c>
       <c r="E151" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152">
@@ -3133,7 +3160,7 @@
         <v>1950.0</v>
       </c>
       <c r="E152" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153">
@@ -3150,7 +3177,7 @@
         <v>1951.0</v>
       </c>
       <c r="E153" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154">
@@ -3167,7 +3194,7 @@
         <v>1952.0</v>
       </c>
       <c r="E154" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155">
@@ -3184,7 +3211,7 @@
         <v>1953.0</v>
       </c>
       <c r="E155" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156">
@@ -3201,7 +3228,7 @@
         <v>1954.0</v>
       </c>
       <c r="E156" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157">
@@ -3218,7 +3245,7 @@
         <v>1955.0</v>
       </c>
       <c r="E157" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158">
@@ -3235,7 +3262,7 @@
         <v>1956.0</v>
       </c>
       <c r="E158" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159">
@@ -3252,7 +3279,7 @@
         <v>1957.0</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -3269,7 +3296,7 @@
         <v>1958.0</v>
       </c>
       <c r="E160" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161">
@@ -3286,7 +3313,7 @@
         <v>1959.0</v>
       </c>
       <c r="E161" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162">
@@ -3303,7 +3330,7 @@
         <v>1960.0</v>
       </c>
       <c r="E162" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163">
@@ -3320,7 +3347,7 @@
         <v>1961.0</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164">
@@ -3337,7 +3364,7 @@
         <v>1962.0</v>
       </c>
       <c r="E164" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165">
@@ -3354,7 +3381,7 @@
         <v>1963.0</v>
       </c>
       <c r="E165" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166">
@@ -3371,7 +3398,7 @@
         <v>1964.0</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167">
@@ -3388,7 +3415,7 @@
         <v>1965.0</v>
       </c>
       <c r="E167" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168">
@@ -3405,7 +3432,7 @@
         <v>1966.0</v>
       </c>
       <c r="E168" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169">
@@ -3422,7 +3449,7 @@
         <v>1967.0</v>
       </c>
       <c r="E169" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170">
@@ -3439,7 +3466,7 @@
         <v>1968.0</v>
       </c>
       <c r="E170" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171">
@@ -3456,7 +3483,7 @@
         <v>1969.0</v>
       </c>
       <c r="E171" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172">
@@ -3473,7 +3500,7 @@
         <v>1970.0</v>
       </c>
       <c r="E172" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="173">
@@ -3490,7 +3517,7 @@
         <v>1971.0</v>
       </c>
       <c r="E173" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174">
@@ -3507,7 +3534,7 @@
         <v>1972.0</v>
       </c>
       <c r="E174" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175">
@@ -3524,7 +3551,7 @@
         <v>1973.0</v>
       </c>
       <c r="E175" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176">
@@ -3541,7 +3568,7 @@
         <v>1974.0</v>
       </c>
       <c r="E176" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="177">
@@ -3558,7 +3585,7 @@
         <v>1975.0</v>
       </c>
       <c r="E177" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178">
@@ -3575,7 +3602,7 @@
         <v>1976.0</v>
       </c>
       <c r="E178" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="179">
@@ -3592,7 +3619,7 @@
         <v>1977.0</v>
       </c>
       <c r="E179" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180">
@@ -3609,7 +3636,7 @@
         <v>1978.0</v>
       </c>
       <c r="E180" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181">
@@ -3626,7 +3653,7 @@
         <v>1979.0</v>
       </c>
       <c r="E181" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
@@ -3643,7 +3670,7 @@
         <v>1980.0</v>
       </c>
       <c r="E182" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="183">
@@ -3660,7 +3687,7 @@
         <v>1981.0</v>
       </c>
       <c r="E183" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="184">
@@ -3677,7 +3704,7 @@
         <v>1982.0</v>
       </c>
       <c r="E184" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185">
@@ -3694,7 +3721,7 @@
         <v>1983.0</v>
       </c>
       <c r="E185" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186">
@@ -3711,7 +3738,7 @@
         <v>1984.0</v>
       </c>
       <c r="E186" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187">
@@ -3728,7 +3755,7 @@
         <v>1985.0</v>
       </c>
       <c r="E187" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188">
@@ -3745,7 +3772,7 @@
         <v>1986.0</v>
       </c>
       <c r="E188" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189">
@@ -3762,7 +3789,7 @@
         <v>1987.0</v>
       </c>
       <c r="E189" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190">
@@ -3779,7 +3806,7 @@
         <v>1988.0</v>
       </c>
       <c r="E190" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191">
@@ -3796,7 +3823,7 @@
         <v>1989.0</v>
       </c>
       <c r="E191" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
@@ -3813,7 +3840,7 @@
         <v>1990.0</v>
       </c>
       <c r="E192" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="193">
@@ -3830,7 +3857,7 @@
         <v>1991.0</v>
       </c>
       <c r="E193" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194">
@@ -3847,7 +3874,7 @@
         <v>1992.0</v>
       </c>
       <c r="E194" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="195">
@@ -3864,7 +3891,7 @@
         <v>1993.0</v>
       </c>
       <c r="E195" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196">
@@ -3881,7 +3908,7 @@
         <v>1994.0</v>
       </c>
       <c r="E196" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="197">
@@ -3898,7 +3925,7 @@
         <v>1995.0</v>
       </c>
       <c r="E197" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198">
@@ -3915,7 +3942,7 @@
         <v>1996.0</v>
       </c>
       <c r="E198" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199">
@@ -3932,7 +3959,7 @@
         <v>1997.0</v>
       </c>
       <c r="E199" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="200">
@@ -3949,7 +3976,7 @@
         <v>1998.0</v>
       </c>
       <c r="E200" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201">
@@ -3966,7 +3993,7 @@
         <v>1999.0</v>
       </c>
       <c r="E201" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="202">
@@ -3983,7 +4010,7 @@
         <v>2000.0</v>
       </c>
       <c r="E202" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203">
@@ -4000,7 +4027,7 @@
         <v>2001.0</v>
       </c>
       <c r="E203" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204">
@@ -4017,7 +4044,7 @@
         <v>2002.0</v>
       </c>
       <c r="E204" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205">
@@ -4034,7 +4061,7 @@
         <v>2003.0</v>
       </c>
       <c r="E205" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206">
@@ -4051,7 +4078,7 @@
         <v>2004.0</v>
       </c>
       <c r="E206" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="207">
@@ -4068,7 +4095,7 @@
         <v>2005.0</v>
       </c>
       <c r="E207" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208">
@@ -4085,7 +4112,7 @@
         <v>2006.0</v>
       </c>
       <c r="E208" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209">
@@ -4102,7 +4129,7 @@
         <v>2007.0</v>
       </c>
       <c r="E209" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210">
@@ -4119,7 +4146,7 @@
         <v>2008.0</v>
       </c>
       <c r="E210" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211">
@@ -4136,7 +4163,7 @@
         <v>2009.0</v>
       </c>
       <c r="E211" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212">
@@ -4153,7 +4180,109 @@
         <v>2010.0</v>
       </c>
       <c r="E212" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4171,50 +4300,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
